--- a/resultado_nuevo_cliente.xlsx
+++ b/resultado_nuevo_cliente.xlsx
@@ -43,8 +43,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0027AE60"/>
-        <bgColor rgb="0027AE60"/>
+        <fgColor rgb="00C0392B"/>
+        <bgColor rgb="00C0392B"/>
       </patternFill>
     </fill>
   </fills>
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,327 +462,159 @@
     <col width="18" customWidth="1" min="13" max="13"/>
     <col width="18" customWidth="1" min="14" max="14"/>
     <col width="18" customWidth="1" min="15" max="15"/>
-    <col width="18" customWidth="1" min="16" max="16"/>
-    <col width="18" customWidth="1" min="17" max="17"/>
-    <col width="18" customWidth="1" min="18" max="18"/>
-    <col width="18" customWidth="1" min="19" max="19"/>
-    <col width="18" customWidth="1" min="20" max="20"/>
-    <col width="18" customWidth="1" min="21" max="21"/>
-    <col width="18" customWidth="1" min="22" max="22"/>
-    <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="18" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
-    <col width="18" customWidth="1" min="26" max="26"/>
-    <col width="18" customWidth="1" min="27" max="27"/>
-    <col width="18" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>APROBADO | Tasa: 69.94% | Nivel: Alto Riesgo (Tier 4) | PD: 24.50% | Fecha: 2025-10-31 22:49:09</t>
+          <t>RECHAZADO | Tasa: 172.75% | Nivel: Alto Riesgo (Tier 4) | PD: 79.33% | Fecha: 2025-10-31 23:54:28</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Monthly_Inhand_Salary</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Occupation</t>
+          <t>Total_EMI_per_month</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Annual_Income</t>
+          <t>Credit_Utilization_Ratio</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Monthly_Inhand_Salary</t>
+          <t>Credit_History_Age</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Num_Bank_Accounts</t>
+          <t>Num_of_Delayed_Payment</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>Num_Credit_Card</t>
+          <t>Num_Credit_Inquiries</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>Interest_Rate</t>
+          <t>Outstanding_Debt</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>Num_of_Loan</t>
+          <t>Monthly_Balance</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>Delay_from_due_date</t>
+          <t>PD</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>Num_of_Delayed_Payment</t>
+          <t>Prima_Riesgo</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>Changed_Credit_Limit</t>
+          <t>Tasa_Interés_Anual</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>Num_Credit_Inquiries</t>
+          <t>Tasa_Mensual</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>Credit_Mix</t>
+          <t>Tier</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Outstanding_Debt</t>
+          <t>Aprobación</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Credit_Utilization_Ratio</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>Credit_History_Age</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>Payment_of_Min_Amount</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>Total_EMI_per_month</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>Amount_invested_monthly</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>Payment_Behaviour</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
-        <is>
-          <t>Monthly_Balance</t>
-        </is>
-      </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>PD</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>Prima_Riesgo</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>Tasa_Interés_Anual</t>
-        </is>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>Tasa_Mensual</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>Tier</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>Aprobación</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
           <t>Fecha_Evaluación</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>35</v>
-      </c>
-      <c r="C3" t="n">
-        <v>480000</v>
-      </c>
-      <c r="D3" t="n">
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14">
+      <c r="A14" t="n">
         <v>40000</v>
       </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B14" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>28</v>
+      </c>
+      <c r="D14" t="n">
+        <v>320</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>12</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>28</v>
-      </c>
-      <c r="P3" t="n">
-        <v>100</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1500</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.398125</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.6381250000000001</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.05317708333333334</v>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="G14" t="n">
+        <v>1300</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7933333333333333</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.4875</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.7275</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1439583333333333</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Alto Riesgo (Tier 4)</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>APROBADO</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>2025-10-31 22:20:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>35</v>
-      </c>
-      <c r="C4" t="n">
-        <v>480000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>28</v>
-      </c>
-      <c r="P4" t="n">
-        <v>100</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1500</v>
-      </c>
-      <c r="U4" t="n">
-        <v>5000</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.459375</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.699375</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.05828125</v>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Alto Riesgo (Tier 4)</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>APROBADO</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>2025-10-31 22:49:09</t>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>RECHAZADO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2025-10-31 23:54:28</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
